--- a/assembly/gsvesc-top-pos.xlsx
+++ b/assembly/gsvesc-top-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="427">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -478,754 +478,721 @@
     <t xml:space="preserve">-26.337500</t>
   </si>
   <si>
-    <t xml:space="preserve">C53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.100000</t>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.119499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.118000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.017328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.436000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.055999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5819W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMMBD914LT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.025000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.075000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.575736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.321320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXT_OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15u0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.475000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH2R608NH,L1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.712500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.625000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.087500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.152005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.787500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.390000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.762499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.575000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.662500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.595000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.959000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.277000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.525000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.880001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.910000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.624000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.638000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.226000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.962500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.237500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7k50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.197500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.362500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.362500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F405RGTx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.928200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.981400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC1G66DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM5107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA240A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.400001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.874999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
   </si>
   <si>
     <t xml:space="preserve">6.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.119499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.118000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.017328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.436000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.055999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5819W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMMBD914LT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.025000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.075000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.825000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.575736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.321320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXT_OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15u0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.475000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPH2R608NH,L1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.712500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.625000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.325000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.087500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.152005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.787500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.390000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.762499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.575000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.662500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.595000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.959000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.277000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.525000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.880001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.910000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.624000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.638000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.226000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.962500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4R75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.237500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.210000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7k50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.197500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.362500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.362500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM32F405RGTx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.928200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.981400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LVC1G66DBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM5107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA240A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.400001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.874999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7</t>
   </si>
   <si>
     <t xml:space="preserve">U8</t>
@@ -1348,6 +1315,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1433,10 +1401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1445,7 +1413,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1743,7 +1711,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>11</v>
@@ -1943,7 +1911,7 @@
         <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>11</v>
@@ -2283,7 +2251,7 @@
         <v>53</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>11</v>
@@ -2363,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>11</v>
@@ -2383,7 +2351,7 @@
         <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>11</v>
@@ -2423,7 +2391,7 @@
         <v>148</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>11</v>
@@ -2474,13 +2442,13 @@
         <v>156</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>38</v>
@@ -2491,19 +2459,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>11</v>
@@ -2511,19 +2479,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>11</v>
@@ -2531,16 +2499,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>165</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>38</v>
@@ -2551,19 +2519,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>11</v>
@@ -2571,19 +2539,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>11</v>
@@ -2591,19 +2559,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>178</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>11</v>
@@ -2611,19 +2579,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>181</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>11</v>
@@ -2631,19 +2599,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>186</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>11</v>
@@ -2651,19 +2619,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>11</v>
@@ -2674,16 +2642,16 @@
         <v>189</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>190</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>11</v>
@@ -2691,19 +2659,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>11</v>
@@ -2711,16 +2679,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>25</v>
@@ -2731,19 +2699,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>11</v>
@@ -2751,19 +2719,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>11</v>
@@ -2771,19 +2739,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>11</v>
@@ -2791,19 +2759,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>11</v>
@@ -2811,19 +2779,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>11</v>
@@ -2831,19 +2799,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>11</v>
@@ -2851,19 +2819,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>11</v>
@@ -2871,19 +2839,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>11</v>
@@ -2891,19 +2859,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>11</v>
@@ -2911,10 +2879,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>237</v>
@@ -2934,13 +2902,13 @@
         <v>239</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
@@ -2951,10 +2919,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>243</v>
@@ -2963,7 +2931,7 @@
         <v>244</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>11</v>
@@ -2974,16 +2942,16 @@
         <v>245</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>11</v>
@@ -2991,19 +2959,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>11</v>
@@ -3011,19 +2979,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>11</v>
@@ -3031,16 +2999,16 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>10</v>
@@ -3051,16 +3019,16 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>10</v>
@@ -3071,16 +3039,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>10</v>
@@ -3091,16 +3059,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>10</v>
@@ -3111,19 +3079,19 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>11</v>
@@ -3131,19 +3099,19 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>11</v>
@@ -3151,19 +3119,19 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>11</v>
@@ -3183,7 +3151,7 @@
         <v>281</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>11</v>
@@ -3200,10 +3168,10 @@
         <v>284</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>11</v>
@@ -3214,16 +3182,16 @@
         <v>285</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>11</v>
@@ -3231,19 +3199,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>11</v>
@@ -3254,16 +3222,16 @@
         <v>290</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>11</v>
@@ -3271,16 +3239,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>10</v>
@@ -3291,16 +3259,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="D93" s="0" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
@@ -3311,19 +3279,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>11</v>
@@ -3331,19 +3299,19 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="D95" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>11</v>
@@ -3351,19 +3319,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>11</v>
@@ -3371,19 +3339,19 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>307</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>11</v>
@@ -3391,19 +3359,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>11</v>
@@ -3411,19 +3379,19 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>11</v>
@@ -3431,19 +3399,19 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>11</v>
@@ -3451,19 +3419,19 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>316</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>319</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>11</v>
@@ -3474,16 +3442,16 @@
         <v>320</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>11</v>
@@ -3491,19 +3459,19 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>11</v>
@@ -3511,19 +3479,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>11</v>
@@ -3531,19 +3499,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>11</v>
@@ -3551,19 +3519,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>11</v>
@@ -3571,19 +3539,19 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>338</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>11</v>
@@ -3594,13 +3562,13 @@
         <v>339</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>340</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>38</v>
@@ -3611,10 +3579,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>283</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>343</v>
@@ -3623,7 +3591,7 @@
         <v>344</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>11</v>
@@ -3634,13 +3602,13 @@
         <v>345</v>
       </c>
       <c r="B110" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>25</v>
@@ -3651,19 +3619,19 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>350</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>11</v>
@@ -3674,16 +3642,16 @@
         <v>351</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>352</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>11</v>
@@ -3691,19 +3659,19 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="C113" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>11</v>
@@ -3711,19 +3679,19 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>359</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>11</v>
@@ -3731,16 +3699,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>362</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>25</v>
@@ -3751,16 +3719,16 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>364</v>
-      </c>
       <c r="D116" s="0" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>10</v>
@@ -3771,19 +3739,19 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>11</v>
@@ -3791,19 +3759,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>11</v>
@@ -3811,19 +3779,19 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>11</v>
@@ -3831,16 +3799,16 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>10</v>
@@ -3854,16 +3822,16 @@
         <v>376</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>11</v>
@@ -3871,19 +3839,19 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>11</v>
@@ -3891,19 +3859,19 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>381</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>11</v>
@@ -3911,19 +3879,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C124" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>387</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>11</v>
@@ -3931,16 +3899,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C125" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>10</v>
@@ -3951,19 +3919,19 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="D126" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>11</v>
@@ -3971,19 +3939,19 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>11</v>
@@ -3991,19 +3959,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>398</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>11</v>
@@ -4011,16 +3979,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D129" s="0" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>10</v>
@@ -4031,16 +3999,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>10</v>
@@ -4051,16 +4019,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>161</v>
+        <v>375</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>10</v>
@@ -4071,19 +4039,19 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>11</v>
@@ -4091,16 +4059,16 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>10</v>
@@ -4111,19 +4079,19 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>11</v>
@@ -4131,19 +4099,19 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>11</v>
@@ -4151,101 +4119,21 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="0" t="s">
         <v>11</v>
       </c>
     </row>
